--- a/refpep.xlsx
+++ b/refpep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalle\Documents\GitHub\peptidomic_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D1CF7A-9D52-450A-B15C-3963BFDBF21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B5BA06-BC75-484E-8376-595D60E54B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="948" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="948" firstSheet="19" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14292,11 +14292,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J120"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -16535,7 +16538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -16804,7 +16807,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22840,13 +22843,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="22.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -25692,7 +25696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E13" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G36"/>
     </sheetView>
   </sheetViews>
